--- a/Output/CorrelationsAll.xlsx
+++ b/Output/CorrelationsAll.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.10***</t>
+          <t>0.11***</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.03*</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.63***</t>
+          <t>0.62***</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.40*</t>
+          <t>0.41*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.05**</t>
+          <t>0.06***</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.07*</t>
+          <t>0.08*</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.23***</t>
+          <t>0.24***</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.24***</t>
+          <t>0.25***</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.46***</t>
+          <t>0.47***</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.09***</t>
+          <t>0.10***</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.03*</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1267,37 +1267,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.36*</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.67***</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>0.34*</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.67***</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.33*</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[0.13]</t>
+          <t>[0.14]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.08***</t>
+          <t>0.07***</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.44**</t>
+          <t>0.46**</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">

--- a/Output/CorrelationsAll.xlsx
+++ b/Output/CorrelationsAll.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,25 +415,35 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>barriers</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>facilitators</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>studyGroup</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>got_JITAI</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>skilled_support</t>
         </is>
@@ -497,25 +507,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>0.11***</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>0.38***</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>0.07***</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>-0.10***</t>
         </is>
@@ -579,25 +599,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>0.03*</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>-0.06***</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>-0.04**</t>
         </is>
@@ -661,25 +691,35 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>0.08***</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>0.24***</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>0.25***</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
@@ -743,25 +783,35 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.14***</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>0.47***</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>0.31***</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>-0.04*</t>
         </is>
@@ -825,25 +875,35 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.08***</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>0.10***</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>0.13***</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
@@ -907,25 +967,35 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>-0.11***</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.15***</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>0.05**</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>0.12***</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>0.07***</t>
         </is>
@@ -989,25 +1059,35 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>0.07*</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
@@ -1071,25 +1151,35 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>-0.05*</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>-0.09***</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>0.67***</t>
         </is>
@@ -1153,25 +1243,35 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>-0.03*</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>-0.05**</t>
         </is>
@@ -1235,25 +1335,35 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.06**</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>-0.09***</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>0.05***</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>0.05***</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
@@ -1262,42 +1372,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.36*</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.67***</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.34*</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1307,161 +1417,181 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[0.09]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-0.46***</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.11***</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.06*</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>-0.03</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[0.14]</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.16***</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.07***</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>-0.01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>studyGroup</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[0.28]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.15***</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>0.03</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>[1.00]</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.70***</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.36*</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>0.67***</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.34*</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1471,7 +1601,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1481,69 +1611,79 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.46**</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.34*</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>[0.30]</t>
+          <t>[0.14]</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.16***</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>0.07***</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>-0.03</t>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-0.01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>got_JITAI</t>
+          <t>studyGroup</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1553,7 +1693,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1563,107 +1703,311 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>-0.78***</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[0.05]</t>
+          <t>[1.00]</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.16***</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.70***</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67***</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.46**</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[0.30]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.07***</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>got_JITAI</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-0.78***</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[0.05]</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.16***</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>skilled_support</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>-0.19</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>-0.07</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>-0.24</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-0.10</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>-0.43**</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>0.18</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>-0.15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>-0.85***</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>0.51***</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>[0.17]</t>
         </is>

--- a/Output/CorrelationsAll.xlsx
+++ b/Output/CorrelationsAll.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.08***</t>
+          <t>0.07**</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05*</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.14***</t>
+          <t>0.15***</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -875,12 +875,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06*</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.08***</t>
+          <t>0.09***</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.11***</t>
+          <t>-0.15***</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.05*</t>
+          <t>-0.06*</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.06**</t>
+          <t>0.07**</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1377,37 +1377,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1417,47 +1417,47 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[0.08]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-0.44***</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.07**</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.06**</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>-0.04</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[0.09]</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>-0.46***</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.11***</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.06*</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-0.03</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1489,17 +1489,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.28]</t>
+          <t>[0.29]</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.34*</t>
+          <t>0.36*</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1979,12 +1979,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
